--- a/Pepcoding/Code Book.xlsx
+++ b/Pepcoding/Code Book.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayanilwadkar/Documents/Code/Pepcoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34080F87-C848-D14B-A820-5262FB8F6C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149411D5-A2A6-104E-968D-58A42ECF18D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" activeTab="5" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursion" sheetId="1" r:id="rId1"/>
     <sheet name="Dynamic Programming" sheetId="2" r:id="rId2"/>
-    <sheet name="Backtracking" sheetId="3" r:id="rId3"/>
+    <sheet name="Hashmap" sheetId="4" r:id="rId3"/>
+    <sheet name="Bit Manipulation" sheetId="5" r:id="rId4"/>
+    <sheet name="Backtracking" sheetId="3" r:id="rId5"/>
+    <sheet name="Arrays" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
   <si>
     <t>_0001_PrintDecreasing.java</t>
   </si>
@@ -183,13 +186,106 @@
   </si>
   <si>
     <t xml:space="preserve">Rod Cutting </t>
+  </si>
+  <si>
+    <t>Find no of of employees under every employee</t>
+  </si>
+  <si>
+    <t>Reconstruct Itternary</t>
+  </si>
+  <si>
+    <t>Pairs of Numbers divisble by K</t>
+  </si>
+  <si>
+    <t>Distinct Elements in Window of Size K</t>
+  </si>
+  <si>
+    <t>Acquire Release</t>
+  </si>
+  <si>
+    <t>2 Sum</t>
+  </si>
+  <si>
+    <t>This problem can be solved using two approaches:</t>
+  </si>
+  <si>
+    <t>1) Sorting and using two pointers (if the index does not matter)</t>
+  </si>
+  <si>
+    <t>Sorting will take O(n log n) complexity</t>
+  </si>
+  <si>
+    <t>2) Using Hash Map we can sove this in O(n) time but then it will</t>
+  </si>
+  <si>
+    <t>take O(n) space as well.</t>
+  </si>
+  <si>
+    <t>Check if Subarray With 0 Sum Exisits</t>
+  </si>
+  <si>
+    <t>This problem can be solved using PREFIX-SUM approach</t>
+  </si>
+  <si>
+    <t>we start with a taking a set and adding 0 in it.</t>
+  </si>
+  <si>
+    <t>Check if a sum is repeated.</t>
+  </si>
+  <si>
+    <t>Concept: a + b + c ….. = 0</t>
+  </si>
+  <si>
+    <t>a + b = c +… will be true;</t>
+  </si>
+  <si>
+    <t>i.e. 2 + 3 - 5 = 0</t>
+  </si>
+  <si>
+    <t>2 + 3 = 5</t>
+  </si>
+  <si>
+    <t>if we find a sum i.e 5 twice we can consider that the sum of this is 0.</t>
+  </si>
+  <si>
+    <t>Sort Binary Array In Linear Time</t>
+  </si>
+  <si>
+    <t>Dutch National Flag Approach</t>
+  </si>
+  <si>
+    <t>Find non duplicate</t>
+  </si>
+  <si>
+    <t>using XOR</t>
+  </si>
+  <si>
+    <t>Find the maximum subarray having the given length k</t>
+  </si>
+  <si>
+    <t>Prefix Sum and Hash Map</t>
+  </si>
+  <si>
+    <t>Find the maximum subarray having equal 0's and 1's</t>
+  </si>
+  <si>
+    <t>Prefix Sum and Hash Map, where</t>
+  </si>
+  <si>
+    <t>sum += arr[i] == 0 ? -1 : 1;</t>
+  </si>
+  <si>
+    <t>Dutch national Flag</t>
+  </si>
+  <si>
+    <t>Max Product of 2 number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +330,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -255,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -278,11 +404,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -314,6 +498,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +858,7 @@
   <dimension ref="A2:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+      <selection activeCell="C3" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,8 +1151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990CEAB-CB1C-3949-BF0D-EA601849EE86}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1224,6 +1450,86 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE1DC18-4580-0243-AA8E-BD1C30118446}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="14"/>
+    <col min="2" max="2" width="106.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="17"/>
+      <c r="B1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="15"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="14">
+        <v>3</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="14">
+        <v>4</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02142AC1-853F-4E4E-BEAE-647AD5D92E7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83E79B1E-0176-EF47-9B8C-D1FAC1D13835}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1233,4 +1539,247 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC75620-F0FE-484D-8D6F-D1248A3B8F04}">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="5"/>
+    <col min="2" max="2" width="68.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="190" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A1" s="20"/>
+      <c r="B1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A2" s="20"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A10" s="20">
+        <v>2</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A16" s="20"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A19" s="20">
+        <v>3</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A21" s="20">
+        <v>4</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A23" s="20">
+        <v>5</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A25" s="20">
+        <v>6</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A27" s="20"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A28" s="20">
+        <v>7</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A29" s="20"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A30" s="20">
+        <v>8</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pepcoding/Code Book.xlsx
+++ b/Pepcoding/Code Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayanilwadkar/Documents/Code/Pepcoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149411D5-A2A6-104E-968D-58A42ECF18D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3833A6D4-8152-FC4C-B1B8-E548E621A8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19720" activeTab="5" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursion" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Bit Manipulation" sheetId="5" r:id="rId4"/>
     <sheet name="Backtracking" sheetId="3" r:id="rId5"/>
     <sheet name="Arrays" sheetId="6" r:id="rId6"/>
+    <sheet name="Leetcode 300" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>_0001_PrintDecreasing.java</t>
   </si>
@@ -278,7 +279,85 @@
     <t>Dutch national Flag</t>
   </si>
   <si>
-    <t>Max Product of 2 number</t>
+    <t>Max Product of 2 numbers</t>
+  </si>
+  <si>
+    <t>Math.max(largest * second largest, smallest * second smallest);</t>
+  </si>
+  <si>
+    <t>Inplace Merge 2 Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Find index of zero to be replaced to get max consecutive 1's</t>
+  </si>
+  <si>
+    <t>same as max cosecutive 1's part 2</t>
+  </si>
+  <si>
+    <t>Arrange high low seq</t>
+  </si>
+  <si>
+    <t>Approach 1: Sort and then take first and last element in a new array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach 2: Start with i = 1 and take alternative elements </t>
+  </si>
+  <si>
+    <t>Equilibrium index</t>
+  </si>
+  <si>
+    <t>Find Majority Element</t>
+  </si>
+  <si>
+    <t>Use Boyer Moore algorithm instead of a HashMap to count the most repeating integer</t>
+  </si>
+  <si>
+    <t>If there is situation where we don’t need the count but want to find the majority element</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from a sorted array</t>
+  </si>
+  <si>
+    <t>Use the writeIndex approach</t>
+  </si>
+  <si>
+    <t>Remove duplicates from a sorted array 2</t>
+  </si>
+  <si>
+    <t>Allow two duplicates</t>
+  </si>
+  <si>
+    <t>This problem is very important</t>
+  </si>
+  <si>
+    <t>we can alter the code to work with k repeated.</t>
+  </si>
+  <si>
+    <t>Count a_ + b_ + c_ Subsequences</t>
+  </si>
+  <si>
+    <t>Maximum Sum Non Adjacent Elements</t>
+  </si>
+  <si>
+    <t>Paint House 3 Colors</t>
+  </si>
+  <si>
+    <t>Paint House N Colors</t>
+  </si>
+  <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
+    <t>Tilling Dominos</t>
+  </si>
+  <si>
+    <t>Tilling Dominos 2</t>
+  </si>
+  <si>
+    <t>Friends Pairing</t>
+  </si>
+  <si>
+    <t>Partition into Subsets</t>
   </si>
 </sst>
 </file>
@@ -361,7 +440,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -377,6 +456,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -540,6 +631,18 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990CEAB-CB1C-3949-BF0D-EA601849EE86}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1181,77 +1284,77 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="29" t="s">
         <v>34</v>
       </c>
       <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>5</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="29" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>6</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C13" s="7"/>
@@ -1430,19 +1533,270 @@
       <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+      <c r="A39" s="7">
+        <v>19</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>97</v>
+      </c>
       <c r="C39" s="7"/>
     </row>
     <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+      <c r="B40" s="28"/>
       <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+      <c r="A41" s="7">
+        <v>20</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>98</v>
+      </c>
       <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A43" s="7">
+        <v>21</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>22</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>23</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A49" s="7">
+        <v>24</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A51" s="7">
+        <v>25</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A53" s="7">
+        <v>26</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A55" s="7">
+        <v>27</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A83" s="7"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A84" s="7"/>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1543,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC75620-F0FE-484D-8D6F-D1248A3B8F04}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="C29" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,14 +2110,16 @@
       <c r="B27" s="23"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="38" x14ac:dyDescent="0.2">
       <c r="A28" s="20">
         <v>7</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="37" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
@@ -1779,6 +2135,331 @@
       </c>
       <c r="C30" s="20"/>
     </row>
+    <row r="31" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A32" s="20">
+        <v>9</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="20"/>
+    </row>
+    <row r="33" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="20"/>
+    </row>
+    <row r="34" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A34" s="20">
+        <v>10</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="20"/>
+    </row>
+    <row r="36" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A36" s="20">
+        <v>11</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="B38" s="23"/>
+      <c r="C38" s="20"/>
+    </row>
+    <row r="39" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A39" s="20">
+        <v>12</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="20"/>
+    </row>
+    <row r="40" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="20"/>
+    </row>
+    <row r="41" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A41" s="20">
+        <v>13</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="20"/>
+    </row>
+    <row r="44" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A44" s="20"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="20"/>
+    </row>
+    <row r="45" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="20"/>
+    </row>
+    <row r="46" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="20"/>
+    </row>
+    <row r="47" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="20"/>
+    </row>
+    <row r="48" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="20"/>
+    </row>
+    <row r="49" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="20"/>
+    </row>
+    <row r="50" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="20"/>
+    </row>
+    <row r="51" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="20"/>
+    </row>
+    <row r="52" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="20"/>
+    </row>
+    <row r="53" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="20"/>
+    </row>
+    <row r="54" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="20"/>
+    </row>
+    <row r="55" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A55" s="20"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="20"/>
+    </row>
+    <row r="56" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A56" s="20"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="20"/>
+    </row>
+    <row r="57" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A57" s="20"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="20"/>
+    </row>
+    <row r="58" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A58" s="20"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="20"/>
+    </row>
+    <row r="59" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A59" s="20"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="20"/>
+    </row>
+    <row r="60" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A60" s="20"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="20"/>
+    </row>
+    <row r="61" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A61" s="20"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="20"/>
+    </row>
+    <row r="62" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A62" s="20"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="20"/>
+    </row>
+    <row r="63" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A63" s="20"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="20"/>
+    </row>
+    <row r="64" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A64" s="20"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="20"/>
+    </row>
+    <row r="65" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A65" s="20"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A66" s="20"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A67" s="20"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="20"/>
+    </row>
+    <row r="68" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A68" s="20"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="20"/>
+    </row>
+    <row r="69" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A69" s="20"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="20"/>
+    </row>
+    <row r="70" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A70" s="20"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="20"/>
+    </row>
+    <row r="71" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A71" s="20"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="20"/>
+    </row>
+    <row r="72" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A72" s="20"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="20"/>
+    </row>
+    <row r="73" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A73" s="20"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="20"/>
+    </row>
+    <row r="74" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A74" s="20"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="20"/>
+    </row>
+    <row r="75" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A75" s="20"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="20"/>
+    </row>
+    <row r="76" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A76" s="20"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="20"/>
+    </row>
+    <row r="77" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A77" s="20"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="20"/>
+    </row>
+    <row r="78" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A78" s="20"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="20"/>
+    </row>
+    <row r="79" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A79" s="20"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9E6775-46B5-294A-8A05-AC2E2B7FFD77}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="26"/>
+    <col min="2" max="2" width="75.5" style="26" customWidth="1"/>
+    <col min="3" max="3" width="175.33203125" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="26">
+        <v>1</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="26">
+        <v>2</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pepcoding/Code Book.xlsx
+++ b/Pepcoding/Code Book.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayanilwadkar/Documents/Code/Pepcoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3833A6D4-8152-FC4C-B1B8-E548E621A8EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDA89C-282C-174C-A82E-A83DBF2DCCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
   <si>
     <t>_0001_PrintDecreasing.java</t>
   </si>
@@ -135,60 +135,15 @@
     <t>Approach</t>
   </si>
   <si>
-    <t>Climbing Stair with 1 or 2 or 3 Jumps</t>
-  </si>
-  <si>
-    <t>Climbing Stairs with Variable Jumps</t>
-  </si>
-  <si>
-    <t>Climb Stairs With Min Moves</t>
-  </si>
-  <si>
-    <t>Jumps With Min Cost</t>
-  </si>
-  <si>
-    <t>Min Cost Path - 2d</t>
-  </si>
-  <si>
-    <t>Goldmines</t>
-  </si>
-  <si>
     <t>01 Knapsack</t>
   </si>
   <si>
     <t>Target Sum</t>
   </si>
   <si>
-    <t>Count Subsets with sum</t>
-  </si>
-  <si>
-    <t>Subset Sum</t>
-  </si>
-  <si>
-    <t>Equal Partition Subset</t>
-  </si>
-  <si>
-    <t>Minimum Subset Sum Difference</t>
-  </si>
-  <si>
-    <t>Count the number of subset with given difference</t>
-  </si>
-  <si>
     <t>Unbounded Knapsack</t>
   </si>
   <si>
-    <t>Coin Change 2(Minimum Ways)</t>
-  </si>
-  <si>
-    <t>Coing Change 3(Permutations)</t>
-  </si>
-  <si>
-    <t>Coin Change 1(Combinations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rod Cutting </t>
-  </si>
-  <si>
     <t>Find no of of employees under every employee</t>
   </si>
   <si>
@@ -333,38 +288,209 @@
     <t>we can alter the code to work with k repeated.</t>
   </si>
   <si>
-    <t>Count a_ + b_ + c_ Subsequences</t>
-  </si>
-  <si>
-    <t>Maximum Sum Non Adjacent Elements</t>
-  </si>
-  <si>
-    <t>Paint House 3 Colors</t>
-  </si>
-  <si>
-    <t>Paint House N Colors</t>
-  </si>
-  <si>
     <t>Paint Fence</t>
   </si>
   <si>
-    <t>Tilling Dominos</t>
-  </si>
-  <si>
-    <t>Tilling Dominos 2</t>
-  </si>
-  <si>
     <t>Friends Pairing</t>
   </si>
   <si>
-    <t>Partition into Subsets</t>
+    <t>Look for the nums[i] and nums[i-k] element if not same increase the write index</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>WriteIndex approach</t>
+  </si>
+  <si>
+    <t>Move Zeros</t>
+  </si>
+  <si>
+    <t>Candy</t>
+  </si>
+  <si>
+    <t>WriteIndex</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Product of Array Except itself</t>
+  </si>
+  <si>
+    <t>Minimum Size Subarray Sum</t>
+  </si>
+  <si>
+    <t>Using two pointers</t>
+  </si>
+  <si>
+    <t>O(n)</t>
+  </si>
+  <si>
+    <t>O(n) + O(n)</t>
+  </si>
+  <si>
+    <t>Two Pointer Approach for Continous Sum (Sliding Window)</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Overlapping Intervals</t>
+  </si>
+  <si>
+    <t>Meetign Rooms 1</t>
+  </si>
+  <si>
+    <t>Meetign Rooms 2</t>
+  </si>
+  <si>
+    <t>Find and Replace String</t>
+  </si>
+  <si>
+    <t>Fibonacci</t>
+  </si>
+  <si>
+    <t>Climbing Stairs with 1 or 2 jumps</t>
+  </si>
+  <si>
+    <t>Climbing Stairs With varaible jumps</t>
+  </si>
+  <si>
+    <t>Climbing Stairs with min Cost</t>
+  </si>
+  <si>
+    <t>Climbing Stairs with min jumps (JUMP GAME)</t>
+  </si>
+  <si>
+    <t>Number of ways in a matrix</t>
+  </si>
+  <si>
+    <t>Number of ways in a matrix II</t>
+  </si>
+  <si>
+    <t>Min Cost Path in a matrix</t>
+  </si>
+  <si>
+    <t>Golmine Problem</t>
+  </si>
+  <si>
+    <t>Subset sum</t>
+  </si>
+  <si>
+    <t>Partition Equal Subset sum</t>
+  </si>
+  <si>
+    <t>Count of Subset with given sum</t>
+  </si>
+  <si>
+    <t>Rod Cutting 1</t>
+  </si>
+  <si>
+    <t>Rod Cutting 2</t>
+  </si>
+  <si>
+    <t>Coin Change 1: Max Ways (Combinations)</t>
+  </si>
+  <si>
+    <t>Coin Change 2: Permutations</t>
+  </si>
+  <si>
+    <t>Coint Change 3: Min Coins</t>
+  </si>
+  <si>
+    <t>Count Binary Strings</t>
+  </si>
+  <si>
+    <t>Count Buildings</t>
+  </si>
+  <si>
+    <t>Decode Ways</t>
+  </si>
+  <si>
+    <t>Count Subsequences such a^i b ^j c^k</t>
+  </si>
+  <si>
+    <t>Max Sum Non Adjacent</t>
+  </si>
+  <si>
+    <t>Paint House (3 Colors)</t>
+  </si>
+  <si>
+    <t>Paint House (N Colors)</t>
+  </si>
+  <si>
+    <t>Tilling Domminos I</t>
+  </si>
+  <si>
+    <t>Tilling Domminos 2</t>
+  </si>
+  <si>
+    <t>Partion Subsets</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 1 One Transaction</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 2 Unlimited Transactions</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 3 With Transaction Fee</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 4 With Cooldown</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 5 With Two Transactions</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 6 With K Transactions</t>
+  </si>
+  <si>
+    <t>Longest Increasing Subsequence</t>
+  </si>
+  <si>
+    <t>Maximum Sum Subsequence</t>
+  </si>
+  <si>
+    <t>Longest Bitonic Subsequence</t>
+  </si>
+  <si>
+    <t>Max Non Overlapping Bridges</t>
+  </si>
+  <si>
+    <t>Russian Doll Envelopes</t>
+  </si>
+  <si>
+    <t>Maximum Length of Chains</t>
+  </si>
+  <si>
+    <t>O(n2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,19 +565,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -461,13 +595,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -587,61 +781,94 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1252,10 +1479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990CEAB-CB1C-3949-BF0D-EA601849EE86}">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,389 +1511,469 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>31</v>
+      <c r="B3" s="30" t="s">
+        <v>108</v>
       </c>
       <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="29"/>
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>109</v>
+      </c>
       <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
-        <v>2</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>110</v>
       </c>
       <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>111</v>
+      </c>
       <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>112</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="29"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
-        <v>4</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="30"/>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="7">
+        <v>7</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="30"/>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="7"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
-        <v>6</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
-        <v>7</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="30"/>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="30"/>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
-        <v>8</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
-        <v>9</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
-        <v>10</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="30"/>
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="30"/>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="30"/>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
-        <v>12</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="30"/>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="7">
+        <v>19</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="30"/>
     </row>
     <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
     </row>
     <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
-        <v>14</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="7"/>
+      <c r="A30" s="7">
+        <v>22</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="30"/>
     </row>
     <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
-        <v>15</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="7"/>
+        <v>23</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="30"/>
     </row>
     <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
     </row>
     <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
-        <v>16</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="7"/>
+        <v>24</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" s="30"/>
     </row>
     <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
     </row>
     <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
-        <v>17</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="30"/>
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="7">
+        <v>26</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="30"/>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
-        <v>18</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="7"/>
+        <v>27</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="30"/>
     </row>
     <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="7">
+        <v>28</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="30"/>
     </row>
     <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A39" s="7">
-        <v>19</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="7"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
     </row>
     <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A40" s="7"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="7">
+        <v>29</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="30"/>
     </row>
     <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
-        <v>20</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C41" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="30"/>
     </row>
     <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="7"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
     </row>
     <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
-        <v>21</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="30"/>
     </row>
     <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="7">
+        <v>32</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="30"/>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A45" s="7">
-        <v>22</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" s="7"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
+      <c r="A46" s="7">
+        <v>33</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="30"/>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
-        <v>23</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="B47" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="30"/>
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="7">
+        <v>35</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="30"/>
     </row>
     <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
-        <v>24</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="30"/>
     </row>
     <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="7">
+        <v>37</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="30"/>
     </row>
     <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
-        <v>25</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
     </row>
     <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
-        <v>26</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="7">
+        <v>40</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
-        <v>27</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
+      <c r="A56" s="7">
+        <v>42</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
+      <c r="A57" s="7">
+        <v>43</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.2">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
+      <c r="A58" s="7">
+        <v>44</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
@@ -1797,6 +2104,21 @@
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A85" s="7"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A86" s="7"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3" ht="29" x14ac:dyDescent="0.2">
+      <c r="A87" s="7"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1813,55 +2135,55 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="14"/>
-    <col min="2" max="2" width="106.6640625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="63.1640625" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="12"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="2" max="2" width="106.6640625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" style="12" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17"/>
-      <c r="B1" s="18" t="s">
+      <c r="A1" s="16"/>
+      <c r="B1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="15"/>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>50</v>
+      <c r="B4" s="12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>3</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>51</v>
+      <c r="B6" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>53</v>
+      <c r="B8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1906,508 +2228,508 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="68.6640625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" style="23" customWidth="1"/>
     <col min="3" max="3" width="190" style="5" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="20"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A2" s="20"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A3" s="20">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A7" s="19"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A11" s="19"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A15" s="19"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A16" s="19"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="19"/>
+    </row>
+    <row r="19" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="20" t="s">
+    <row r="20" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>4</v>
+      </c>
+      <c r="B21" s="22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="20" t="s">
+    <row r="22" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="19"/>
+    </row>
+    <row r="23" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>5</v>
+      </c>
+      <c r="B23" s="22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="20"/>
-    </row>
-    <row r="9" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-    </row>
-    <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.2">
-      <c r="A10" s="20">
-        <v>2</v>
-      </c>
-      <c r="B10" s="23" t="s">
+    <row r="24" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
+        <v>6</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="20" t="s">
+    <row r="26" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="20" t="s">
+    <row r="27" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="19"/>
+    </row>
+    <row r="28" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>7</v>
+      </c>
+      <c r="B28" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A29" s="19"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="19"/>
+    </row>
+    <row r="30" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>8</v>
+      </c>
+      <c r="B30" s="24" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20" t="s">
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A31" s="19"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="19"/>
+    </row>
+    <row r="32" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>9</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="20" t="s">
+      <c r="C32" s="19"/>
+    </row>
+    <row r="33" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="19"/>
+    </row>
+    <row r="34" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>10</v>
+      </c>
+      <c r="B34" s="22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="20"/>
-    </row>
-    <row r="19" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A19" s="20">
-        <v>3</v>
-      </c>
-      <c r="B19" s="23" t="s">
+    <row r="35" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A35" s="19"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="19"/>
+    </row>
+    <row r="36" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
+        <v>11</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="20"/>
-    </row>
-    <row r="21" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
-        <v>4</v>
-      </c>
-      <c r="B21" s="23" t="s">
+    <row r="37" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A37" s="19"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="20" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="B38" s="22"/>
+      <c r="C38" s="19"/>
+    </row>
+    <row r="39" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
+        <v>12</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="20"/>
-    </row>
-    <row r="23" spans="1:3" ht="76" x14ac:dyDescent="0.2">
-      <c r="A23" s="20">
-        <v>5</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="C39" s="19"/>
+    </row>
+    <row r="40" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A40" s="19"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="19"/>
+    </row>
+    <row r="41" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>13</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20"/>
-    </row>
-    <row r="25" spans="1:3" ht="76" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
-        <v>6</v>
-      </c>
-      <c r="B25" s="23" t="s">
+    <row r="42" spans="1:3" ht="37" x14ac:dyDescent="0.2">
+      <c r="A42" s="19"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A28" s="20">
-        <v>7</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="20"/>
-    </row>
-    <row r="30" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A30" s="20">
-        <v>8</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="20"/>
-    </row>
-    <row r="31" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A31" s="20"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="20"/>
-    </row>
-    <row r="32" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A32" s="20">
-        <v>9</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="20"/>
-    </row>
-    <row r="33" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A33" s="20"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20"/>
-    </row>
-    <row r="34" spans="1:3" ht="76" x14ac:dyDescent="0.2">
-      <c r="A34" s="20">
-        <v>10</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A35" s="20"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A36" s="20">
-        <v>11</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
-    </row>
-    <row r="39" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>12</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C39" s="20"/>
-    </row>
-    <row r="40" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="20"/>
-    </row>
-    <row r="41" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A41" s="20">
-        <v>13</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="20" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="43" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="20"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="19"/>
     </row>
     <row r="44" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A44" s="20"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="19"/>
     </row>
     <row r="45" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A45" s="20"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="20"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="19"/>
     </row>
     <row r="46" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="20"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="19"/>
     </row>
     <row r="47" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="19"/>
     </row>
     <row r="48" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A48" s="20"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="20"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="19"/>
     </row>
     <row r="49" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A49" s="20"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="20"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="19"/>
     </row>
     <row r="50" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A50" s="20"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="19"/>
     </row>
     <row r="51" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="20"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="19"/>
     </row>
     <row r="52" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A52" s="20"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="20"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="19"/>
     </row>
     <row r="53" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="19"/>
     </row>
     <row r="54" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="20"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="19"/>
     </row>
     <row r="55" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="20"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="19"/>
     </row>
     <row r="56" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="19"/>
     </row>
     <row r="57" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="20"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="19"/>
     </row>
     <row r="58" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="19"/>
     </row>
     <row r="59" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A59" s="20"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="19"/>
     </row>
     <row r="60" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A60" s="20"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="20"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="19"/>
     </row>
     <row r="61" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A61" s="20"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="20"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="19"/>
     </row>
     <row r="62" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A62" s="20"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="19"/>
     </row>
     <row r="63" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A63" s="20"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="20"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="19"/>
     </row>
     <row r="64" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A64" s="20"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="20"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="19"/>
     </row>
     <row r="65" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A65" s="20"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="19"/>
     </row>
     <row r="66" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A66" s="20"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="19"/>
     </row>
     <row r="67" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="20"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="19"/>
     </row>
     <row r="68" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A68" s="20"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="20"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="19"/>
     </row>
     <row r="69" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A69" s="20"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="20"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="19"/>
     </row>
     <row r="70" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A70" s="20"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="20"/>
+      <c r="A70" s="19"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="19"/>
     </row>
     <row r="71" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A71" s="20"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="20"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="19"/>
     </row>
     <row r="72" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A72" s="20"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="20"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="19"/>
     </row>
     <row r="73" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A73" s="20"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="20"/>
+      <c r="A73" s="19"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="19"/>
     </row>
     <row r="74" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A74" s="20"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="20"/>
+      <c r="A74" s="19"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="19"/>
     </row>
     <row r="75" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A75" s="20"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="20"/>
+      <c r="A75" s="19"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="19"/>
     </row>
     <row r="76" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A76" s="20"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="20"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="19"/>
     </row>
     <row r="77" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A77" s="20"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="20"/>
+      <c r="A77" s="19"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="19"/>
     </row>
     <row r="78" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A78" s="20"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="20"/>
+      <c r="A78" s="19"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="19"/>
     </row>
     <row r="79" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A79" s="20"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="20"/>
+      <c r="A79" s="19"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2416,48 +2738,266 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD9E6775-46B5-294A-8A05-AC2E2B7FFD77}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="43" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="26"/>
-    <col min="2" max="2" width="75.5" style="26" customWidth="1"/>
-    <col min="3" max="3" width="175.33203125" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="10.83203125" style="25"/>
+    <col min="2" max="2" width="75.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="175.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="26">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="25">
         <v>1</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>3</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>4</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>5</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>6</v>
+      </c>
+      <c r="B14" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D14" s="25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="E14" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>7</v>
+      </c>
+      <c r="B16" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D16" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>8</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="C4" s="26" t="s">
+      <c r="E18" s="28" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <v>9</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="25">
+        <v>10</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="25">
+        <v>11</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="25">
+        <v>12</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="25">
+        <v>13</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="25">
+        <v>14</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="25">
+        <v>15</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="25">
+        <v>16</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Pepcoding/Code Book.xlsx
+++ b/Pepcoding/Code Book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshayanilwadkar/Documents/Code/Pepcoding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBDA89C-282C-174C-A82E-A83DBF2DCCD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596F803F-B7F1-A54F-A00C-9ECCAF7AA2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" firstSheet="2" activeTab="8" xr2:uid="{962D2809-76D1-F242-9A49-6B1A946D2A1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Recursion" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Backtracking" sheetId="3" r:id="rId5"/>
     <sheet name="Arrays" sheetId="6" r:id="rId6"/>
     <sheet name="Leetcode 300" sheetId="7" r:id="rId7"/>
+    <sheet name="Strings" sheetId="8" r:id="rId8"/>
+    <sheet name="Codebix" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="388">
   <si>
     <t>_0001_PrintDecreasing.java</t>
   </si>
@@ -258,9 +261,6 @@
     <t xml:space="preserve">Approach 2: Start with i = 1 and take alternative elements </t>
   </si>
   <si>
-    <t>Equilibrium index</t>
-  </si>
-  <si>
     <t>Find Majority Element</t>
   </si>
   <si>
@@ -484,13 +484,736 @@
   </si>
   <si>
     <t>O(n2)</t>
+  </si>
+  <si>
+    <t>Move All Zeros To End of the array</t>
+  </si>
+  <si>
+    <t>Find Equilibrium Index of array</t>
+  </si>
+  <si>
+    <t>Largest Subarray fomed by consecutive integers</t>
+  </si>
+  <si>
+    <t>Longest Bitonic</t>
+  </si>
+  <si>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>Find Max Diff between 2 elements of array by following a condition</t>
+  </si>
+  <si>
+    <t>Print contionious subarray with max sum</t>
+  </si>
+  <si>
+    <t>Kadanes Algo</t>
+  </si>
+  <si>
+    <t>Maximum Sum Circular Array</t>
+  </si>
+  <si>
+    <t>Using modified Kadanes algo.   (  [-2,-3,-1] Imp Test Case)</t>
+  </si>
+  <si>
+    <t>Combination 1</t>
+  </si>
+  <si>
+    <t>helper(arr, k - 1, i + 1, subList, result);</t>
+  </si>
+  <si>
+    <t>helper(arr, k - 1, i, subList, result);</t>
+  </si>
+  <si>
+    <t>Combinations 2 (Repeated Elements)</t>
+  </si>
+  <si>
+    <t>{1,2,3}  ---------------&gt;  [[1, 2], [1, 3], [2, 3]]</t>
+  </si>
+  <si>
+    <t>{1,2,3}  ---------------&gt;  [[1, 1], [1, 2], [1, 3], [2, 2], [2, 3], [3, 3]]</t>
+  </si>
+  <si>
+    <t>Max Continious 1's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Continious 1's with K </t>
+  </si>
+  <si>
+    <t>Minimum Sum Subarray of Size k</t>
+  </si>
+  <si>
+    <t>Max Subarray Multi</t>
+  </si>
+  <si>
+    <t>Subarray with sum k</t>
+  </si>
+  <si>
+    <t>Smallest Subarray With Given Sum</t>
+  </si>
+  <si>
+    <t>Sliding Window</t>
+  </si>
+  <si>
+    <t>Sliding Window | Prefix Sum</t>
+  </si>
+  <si>
+    <t>Find the largest number possible from a set of numbers</t>
+  </si>
+  <si>
+    <t>Find the smallest window in array sorting which will sort the entire array</t>
+  </si>
+  <si>
+    <t>Maximum Sum Path in 1d array</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 1</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 2</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 3</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 4</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 5</t>
+  </si>
+  <si>
+    <t>Buy Sell Stocks 6</t>
+  </si>
+  <si>
+    <t>Trapping Rainwater</t>
+  </si>
+  <si>
+    <t>Min Platforms needed (Meeting Rooms)</t>
+  </si>
+  <si>
+    <t>Decode an array</t>
+  </si>
+  <si>
+    <t>3sum</t>
+  </si>
+  <si>
+    <t>4 sum</t>
+  </si>
+  <si>
+    <t>Length of longest continious sequence with same sum in binary array</t>
+  </si>
+  <si>
+    <t>Reverse every consecutive m elements</t>
+  </si>
+  <si>
+    <t>Maximum Product Subset</t>
+  </si>
+  <si>
+    <t>Pairs with given difference k</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Arethmatic Progression</t>
+  </si>
+  <si>
+    <t>Geometric Progression</t>
+  </si>
+  <si>
+    <t>Combination Sum1</t>
+  </si>
+  <si>
+    <t>Combination Sum2</t>
+  </si>
+  <si>
+    <t>Combination Sum3</t>
+  </si>
+  <si>
+    <t>Combination Sum4</t>
+  </si>
+  <si>
+    <t>Cyclic Sort</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>18.Find Minimum in Rotated Sorted Array II &amp; l  -  Leetcode 154 &amp; 153 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>20.Single Number III - leetcode 260 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>26.Angle Between Hands of a Clock - leetcode 1344 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>28.Reverse Bits - leetcode 190 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>31.Flatten a Multilevel Doubly Linked List - leetcode 430 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>32.Maximum Width of Binary Tree - leetcode 662 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>34.Island Perimeter - leetcode 463 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>35.Snakes and Ladders - leetcode 909 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>38.Hamming Distance - leetcode 461 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>40.Prison Cells After N Days - leetcode 957 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>44.Arranging Coins - leetcode 441 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>45.Word Search II - leetcode 212 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>46.Friend Circles - leetcode 547 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>48.Is Graph Bipartite- - leetcode 785 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>49.Reconstruct Itinerary - leetcode 332 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>50.Word Search - leetcode 79 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>51.Perfect Squares - leetcode 279 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>52.Clone Graph - leetcode 133 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>53.Sum Root to Leaf Numbers - leetcode 129 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>54.Smallest SubTree with deepest nodes - leetcode 865 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>55.Knight On Chess Board - BFS - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>56.Single Number II - leetcode 137 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>57.Dungeon Game - leetcode 174 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>58.H-Index II - leetcode 275 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>59.Surrounded Regions - leetcode 130 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>60.Validate IP Address - leetcode 468 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>62.Cheapest Flights Within K Stops - leetcode 787 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>63.Rotting Oranges - leetcode 994 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>64.Largest Divisible Subset - leetcode 368 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>66.Insert Delete GetRandom O(1) - leetcode 380 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>68.Word Ladder - leetcode 127 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>69.Search Insert Position - leetcode 35 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>70.Keys and Rooms - leetcode 841 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>72.Is Subsequence - leetcode 392 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>73.breadth first search - BFS.mp4</t>
+  </si>
+  <si>
+    <t>74.Power of Two - leetcode 231 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>76.Coin Change 2 - leetcode 518 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>78.Queue Reconstruction by Height - leetcode 406 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>81.Random Pick with Weight - Leetcode 528 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>85.K Closest Points to Origin - Leetcode 973 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>87.Counting Bits - leetcode 338 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>88.Possible Bipartition - leetcode 886 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>89.Contiguous Array - leetcode 525 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>90.Uncrossed Lines - leetcode 1035 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>92.Interval List Intersections - leetcode 986 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>93.Sort Characters By Frequency - leetcode 451 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>94.Count Square Submatrices with All Ones - leetcode 1277 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>95.Kth Smallest Element in a BST - leetcode 230 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>97.Online Stock Span - leetcode 901 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>98.permutaion in string - leetcode 567 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>99.Find All Anagrams in a String - leetcode 438 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>111.Majority Element - leetcode 169 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>112.house robber - recursion and memoization - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>113.Number Complement - leetcode 476 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>114.ransom notes - leetcode 383 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>116.Jewels and Stones - leetcode 771 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>117.matrix chain multiplication - Dynamic programming - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>118.First Bad Version - leetcode 278 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>119.matrix chain multiplication - recursion and memoization - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>120.Check If a String Is a Valid Sequence from Root to Leaves Path in a Binary Tree.mp4</t>
+  </si>
+  <si>
+    <t>123.First Unique Number - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>124.Maximal Square - leetcode 221 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>131.Bitwise AND of Numbers Range - leetcode 201 - hindi.mp4</t>
+  </si>
+  <si>
+    <t>133.Leftmost Column with at Least a One - hindi.mp4</t>
+  </si>
+  <si>
+    <t>141.Perform String Shifts - leetcode 30 days - hindi.mp4</t>
+  </si>
+  <si>
+    <t>142.Last Stone Weight - leetcode 1046 - hindi.mp4</t>
+  </si>
+  <si>
+    <t>144.Egg dropping dynamic programming part 2.mp4</t>
+  </si>
+  <si>
+    <t>146.egg dropping recursion and memoization part 1.mp4</t>
+  </si>
+  <si>
+    <t>178.queue implementation using linkedlist (continue).mp4</t>
+  </si>
+  <si>
+    <t>179.Queue implementation using linkedList.mp4</t>
+  </si>
+  <si>
+    <t>180.Dynamic Queue implementation using array.mp4</t>
+  </si>
+  <si>
+    <t>181.queue implementation using array.mp4</t>
+  </si>
+  <si>
+    <t>182.queue basics.mp4</t>
+  </si>
+  <si>
+    <t>183.stack implementation using LinkedList.mp4</t>
+  </si>
+  <si>
+    <t>184.stack implementation using LinkedList (continue).mp4</t>
+  </si>
+  <si>
+    <t>186.Dynamic Stack implementation using array.mp4</t>
+  </si>
+  <si>
+    <t>187.stack implementation using array.mp4</t>
+  </si>
+  <si>
+    <t>188.stack implementation using array (continue).mp4</t>
+  </si>
+  <si>
+    <t>189.Stack basics.mp4</t>
+  </si>
+  <si>
+    <t>190.leetcode 333 largest bst subtree.mp4</t>
+  </si>
+  <si>
+    <t>191.Binary Tree Maximum Path Sum - leetcode 124 - English.mp4</t>
+  </si>
+  <si>
+    <t>192.leetcode 350 Intersection of Two Arrays II java.mp4</t>
+  </si>
+  <si>
+    <t>193.leetcode 1185 Day of the Week.mp4</t>
+  </si>
+  <si>
+    <t>194.leetcode 472 Concatenated Words.mp4</t>
+  </si>
+  <si>
+    <t>195.leetcode 650 2 Keys Keyboard.mp4</t>
+  </si>
+  <si>
+    <t>197.leetcode 32 Longest Valid Parentheses.mp4</t>
+  </si>
+  <si>
+    <t>198.leetcode 784 Letter Case Permutation.mp4</t>
+  </si>
+  <si>
+    <t>200.leetcode 315 Count of Smaller Numbers After Self.mp4</t>
+  </si>
+  <si>
+    <t>202.leetcode 202 Happy Number.mp4</t>
+  </si>
+  <si>
+    <t>204.leetcode 223 Rectangle Area.mp4</t>
+  </si>
+  <si>
+    <t>205.leetcode 230 Kth Smallest Element in a BST.mp4</t>
+  </si>
+  <si>
+    <t>209.Counting Bits - leetcode 338 - English.mp4</t>
+  </si>
+  <si>
+    <t>210.leetcode 25 Reverse Nodes in k Group.mp4</t>
+  </si>
+  <si>
+    <t>213.leetcode 115 Distinct Subsequences.mp4</t>
+  </si>
+  <si>
+    <t>215.Minimum Path Sum - leetcode 64.mp4</t>
+  </si>
+  <si>
+    <t>218.leetcode 873 Length of Longest Fibonacci Subsequence.mp4</t>
+  </si>
+  <si>
+    <t>221.Find All Anagrams in a String - leetcode 438 - English.mp4</t>
+  </si>
+  <si>
+    <t>222.leetcode 536 Construct Binary Tree from String.mp4</t>
+  </si>
+  <si>
+    <t>224.leetcode 336 Palindrome Pairs.mp4</t>
+  </si>
+  <si>
+    <t>225.leetcode 170 Two Sum III   Data structure design.mp4</t>
+  </si>
+  <si>
+    <t>226.leetcode 508 Most Frequent Subtree Sum.mp4</t>
+  </si>
+  <si>
+    <t>227.leetcode 61 Rotate List.mp4</t>
+  </si>
+  <si>
+    <t>228.leetcode 1161 Maximum Level Sum of a Binary Tree.mp4</t>
+  </si>
+  <si>
+    <t>229.leetcode 563 Binary Tree Tilt.mp4</t>
+  </si>
+  <si>
+    <t>230.leetcode 111 Minimum Depth of Binary Tree.mp4</t>
+  </si>
+  <si>
+    <t>231.Construct expression tree.mp4</t>
+  </si>
+  <si>
+    <t>234.leetcode 450 Delete Node in a BST.mp4</t>
+  </si>
+  <si>
+    <t>239.leetcode 739 Daily Temperatures.mp4</t>
+  </si>
+  <si>
+    <t>241.leetcode 538 Convert BST to Greater Tree.mp4</t>
+  </si>
+  <si>
+    <t>242.leetcode 128 Longest Consecutive Sequence.mp4</t>
+  </si>
+  <si>
+    <t>251.leetcode 863 All Nodes Distance K in Binary Tree.mp4</t>
+  </si>
+  <si>
+    <t>253.leetcode 277 Find the Celebrity.mp4</t>
+  </si>
+  <si>
+    <t>299.Best Time to Buy and Sell Stock III - leetcode 123 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>300.Goat Latin - leetcode 824 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>302.Reorder List - leetcode 143 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>304.Stream of Characters - leetcode 1032 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>305.Sum of Left Leaves - leetcode 404 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>306.Minimum Cost For Tickets - leetcode 983 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>307.Fizz Buzz - leetcode 412 - Hindi.mp4</t>
+  </si>
+  <si>
+    <t>Find Right Interval</t>
+  </si>
+  <si>
+    <t>Implement Rand10</t>
+  </si>
+  <si>
+    <t>Pancake Sorting</t>
+  </si>
+  <si>
+    <t>Largest Component Size by Common Factor</t>
+  </si>
+  <si>
+    <t>Delete node in BST</t>
+  </si>
+  <si>
+    <t>Largest Time for Given Digits</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Maximum Binary Tree</t>
+  </si>
+  <si>
+    <t>All Nodes Distance K in Binary Tree</t>
+  </si>
+  <si>
+    <t>Minimum Falling Path Sum</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Path Sum 3</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Find All Duplicates in Array</t>
+  </si>
+  <si>
+    <t>Add Search Word Data Structure</t>
+  </si>
+  <si>
+    <t>Powe of four</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove K Digits </t>
+  </si>
+  <si>
+    <t>Trie</t>
+  </si>
+  <si>
+    <t>Flood Fill</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t>Check if a striing is rotated palindrome or not</t>
+  </si>
+  <si>
+    <t>1) Check every roatation for it palindromicity</t>
+  </si>
+  <si>
+    <t>2) Take the double of input and find the palindrome of the oriignal length</t>
+  </si>
+  <si>
+    <t>Longest Palindromin Substring</t>
+  </si>
+  <si>
+    <t>Expand Around the Center</t>
+  </si>
+  <si>
+    <t>O(N2)</t>
+  </si>
+  <si>
+    <t>The benefit of using this algo is it uses constant space</t>
+  </si>
+  <si>
+    <t>Check if repeated subsequence is present in a string or not</t>
+  </si>
+  <si>
+    <t>We discard all non repeating elements and see if the remaining is palindrome or not</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>Determine if 2 strings are anagram or not</t>
+  </si>
+  <si>
+    <t>Use HashMap</t>
+  </si>
+  <si>
+    <t>Find all binary string sthat can be formed using wildcard pattern</t>
+  </si>
+  <si>
+    <t>recursion</t>
+  </si>
+  <si>
+    <t>Find All Interleaving Strings</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Group Anagrams</t>
+  </si>
+  <si>
+    <t>Find All Anagrams</t>
+  </si>
+  <si>
+    <t>Using 2 hashmaps</t>
+  </si>
+  <si>
+    <t>This problem can also be solved using 2 arrays to reduce the space complexity</t>
+  </si>
+  <si>
+    <t>Count Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>Print All Palindromic Substrings</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Can be sovled using DP</t>
+  </si>
+  <si>
+    <t>Also can be soved usiing ADC giving the benfit of haviing O(1) extra space</t>
+  </si>
+  <si>
+    <t>Mobile Characters</t>
+  </si>
+  <si>
+    <t>Mobile Characters II</t>
+  </si>
+  <si>
+    <t>Find all words from given list that follows same order of characters as given pattern</t>
+  </si>
+  <si>
+    <t>Can be solved using isomorphic strings</t>
+  </si>
+  <si>
+    <t>One Edit Distance</t>
+  </si>
+  <si>
+    <t>Edit Distance</t>
+  </si>
+  <si>
+    <t>Using Map and set, the idea is to check if all mappings are valid and no duplicate mappings exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another approach is using int[] map map1[x] = i + 1;                                       map2[y] = i + 1; </t>
+  </si>
+  <si>
+    <t>Longest Balanced Parenthesis</t>
+  </si>
+  <si>
+    <t>Print Zig Zag</t>
+  </si>
+  <si>
+    <t>Reverse Text</t>
+  </si>
+  <si>
+    <t>RLE</t>
+  </si>
+  <si>
+    <t>Longest Substring of a string containing K Distinct chars</t>
+  </si>
+  <si>
+    <t>Palindromic Permutations</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>Longest Non Repeating Substring</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Balanced Parenthesis</t>
+  </si>
+  <si>
+    <t>Find the Town Judge</t>
+  </si>
+  <si>
+    <t>Valid Perfect Square</t>
+  </si>
+  <si>
+    <t>Check if it is a straight line</t>
+  </si>
+  <si>
+    <t>Detect Capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -575,6 +1298,20 @@
     <font>
       <sz val="22"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -751,7 +1488,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -817,9 +1554,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -870,6 +1604,19 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1187,7 +1934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE56D61-8804-8844-9EDD-06BC0800C6A5}">
   <dimension ref="A2:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C3" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
@@ -1477,12 +2224,750 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83833CB2-B0D7-9D43-A9F6-31947348DF8D}">
+  <dimension ref="A1:A240"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A149"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="121.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+    </row>
+    <row r="2" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+    </row>
+    <row r="3" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="41"/>
+    </row>
+    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="41"/>
+    </row>
+    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="41"/>
+    </row>
+    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="41"/>
+    </row>
+    <row r="7" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+    </row>
+    <row r="8" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+    </row>
+    <row r="9" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="41"/>
+    </row>
+    <row r="10" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+    </row>
+    <row r="11" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+    </row>
+    <row r="12" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+    </row>
+    <row r="13" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+    </row>
+    <row r="14" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="41"/>
+    </row>
+    <row r="15" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="41"/>
+    </row>
+    <row r="16" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="41"/>
+    </row>
+    <row r="17" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="41"/>
+    </row>
+    <row r="18" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="41"/>
+    </row>
+    <row r="19" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="41"/>
+    </row>
+    <row r="20" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="41"/>
+    </row>
+    <row r="21" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="41"/>
+    </row>
+    <row r="22" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="41"/>
+    </row>
+    <row r="23" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="41"/>
+    </row>
+    <row r="24" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="41"/>
+    </row>
+    <row r="25" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="41"/>
+    </row>
+    <row r="26" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="41"/>
+    </row>
+    <row r="27" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="41"/>
+    </row>
+    <row r="28" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="41"/>
+    </row>
+    <row r="29" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="41"/>
+    </row>
+    <row r="30" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+    </row>
+    <row r="31" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="41"/>
+    </row>
+    <row r="32" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+    </row>
+    <row r="33" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+    </row>
+    <row r="34" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+    </row>
+    <row r="35" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+    </row>
+    <row r="36" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+    </row>
+    <row r="37" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+    </row>
+    <row r="38" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="41"/>
+    </row>
+    <row r="39" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+    </row>
+    <row r="40" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+    </row>
+    <row r="41" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="41"/>
+    </row>
+    <row r="42" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+    </row>
+    <row r="43" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+    </row>
+    <row r="44" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+    </row>
+    <row r="45" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+    </row>
+    <row r="46" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+    </row>
+    <row r="47" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+    </row>
+    <row r="48" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+    </row>
+    <row r="49" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+    </row>
+    <row r="50" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+    </row>
+    <row r="51" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+    </row>
+    <row r="52" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+    </row>
+    <row r="53" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+    </row>
+    <row r="54" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+    </row>
+    <row r="55" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+    </row>
+    <row r="56" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+    </row>
+    <row r="57" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+    </row>
+    <row r="58" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+    </row>
+    <row r="59" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+    </row>
+    <row r="60" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+    </row>
+    <row r="61" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+    </row>
+    <row r="62" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+    </row>
+    <row r="63" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+    </row>
+    <row r="64" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+    </row>
+    <row r="65" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+    </row>
+    <row r="66" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+    </row>
+    <row r="67" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+    </row>
+    <row r="68" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+    </row>
+    <row r="69" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+    </row>
+    <row r="70" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+    </row>
+    <row r="71" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+    </row>
+    <row r="72" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+    </row>
+    <row r="73" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+    </row>
+    <row r="74" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+    </row>
+    <row r="75" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+    </row>
+    <row r="76" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+    </row>
+    <row r="77" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+    </row>
+    <row r="78" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+    </row>
+    <row r="79" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+    </row>
+    <row r="80" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+    </row>
+    <row r="81" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+    </row>
+    <row r="82" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+    </row>
+    <row r="83" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+    </row>
+    <row r="84" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+    </row>
+    <row r="85" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+    </row>
+    <row r="86" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+    </row>
+    <row r="87" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+    </row>
+    <row r="88" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="41"/>
+    </row>
+    <row r="89" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+    </row>
+    <row r="90" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+    </row>
+    <row r="91" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+    </row>
+    <row r="92" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+    </row>
+    <row r="93" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
+    </row>
+    <row r="94" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
+    </row>
+    <row r="95" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+    </row>
+    <row r="96" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="41"/>
+    </row>
+    <row r="97" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+    </row>
+    <row r="98" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+    </row>
+    <row r="99" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+    </row>
+    <row r="100" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="41"/>
+    </row>
+    <row r="101" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="41"/>
+    </row>
+    <row r="102" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="41"/>
+    </row>
+    <row r="103" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="41"/>
+    </row>
+    <row r="104" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="41"/>
+    </row>
+    <row r="105" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="41"/>
+    </row>
+    <row r="106" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="41"/>
+    </row>
+    <row r="107" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="41"/>
+    </row>
+    <row r="108" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+    </row>
+    <row r="109" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="41"/>
+    </row>
+    <row r="110" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="41"/>
+    </row>
+    <row r="111" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="41"/>
+    </row>
+    <row r="112" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="41"/>
+    </row>
+    <row r="113" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="41"/>
+    </row>
+    <row r="114" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="41"/>
+    </row>
+    <row r="115" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="41"/>
+    </row>
+    <row r="116" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A116" s="41"/>
+    </row>
+    <row r="117" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A117" s="41"/>
+    </row>
+    <row r="118" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A118" s="41"/>
+    </row>
+    <row r="119" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A119" s="41"/>
+    </row>
+    <row r="120" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A120" s="41"/>
+    </row>
+    <row r="121" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A121" s="41"/>
+    </row>
+    <row r="122" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A122" s="41"/>
+    </row>
+    <row r="123" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A123" s="41"/>
+    </row>
+    <row r="124" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A124" s="41"/>
+    </row>
+    <row r="125" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A125" s="41"/>
+    </row>
+    <row r="126" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A126" s="41"/>
+    </row>
+    <row r="127" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A127" s="41"/>
+    </row>
+    <row r="128" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+    </row>
+    <row r="129" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+    </row>
+    <row r="130" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A130" s="41"/>
+    </row>
+    <row r="131" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A131" s="41"/>
+    </row>
+    <row r="132" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+    </row>
+    <row r="133" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+    </row>
+    <row r="134" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A134" s="41"/>
+    </row>
+    <row r="135" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+    </row>
+    <row r="136" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+    </row>
+    <row r="137" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+    </row>
+    <row r="138" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A138" s="41"/>
+    </row>
+    <row r="139" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A139" s="41"/>
+    </row>
+    <row r="140" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A140" s="41"/>
+    </row>
+    <row r="141" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A141" s="41"/>
+    </row>
+    <row r="142" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A142" s="41"/>
+    </row>
+    <row r="143" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A143" s="41"/>
+    </row>
+    <row r="144" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A144" s="41"/>
+    </row>
+    <row r="145" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A145" s="41"/>
+    </row>
+    <row r="146" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A146" s="41"/>
+    </row>
+    <row r="147" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A147" s="41"/>
+    </row>
+    <row r="148" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A148" s="41"/>
+    </row>
+    <row r="149" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A149" s="41"/>
+    </row>
+    <row r="150" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A150" s="41"/>
+    </row>
+    <row r="151" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+    </row>
+    <row r="152" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A152" s="41"/>
+    </row>
+    <row r="153" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A153" s="41"/>
+    </row>
+    <row r="154" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A154" s="41"/>
+    </row>
+    <row r="155" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A155" s="41"/>
+    </row>
+    <row r="156" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A156" s="41"/>
+    </row>
+    <row r="157" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A157" s="41"/>
+    </row>
+    <row r="158" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A158" s="41"/>
+    </row>
+    <row r="159" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A159" s="41"/>
+    </row>
+    <row r="160" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A160" s="41"/>
+    </row>
+    <row r="161" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A161" s="41"/>
+    </row>
+    <row r="162" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A162" s="41"/>
+    </row>
+    <row r="163" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A163" s="41"/>
+    </row>
+    <row r="164" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A164" s="41"/>
+    </row>
+    <row r="165" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A165" s="41"/>
+    </row>
+    <row r="166" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A166" s="41"/>
+    </row>
+    <row r="167" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A167" s="41"/>
+    </row>
+    <row r="168" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A168" s="41"/>
+    </row>
+    <row r="169" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A169" s="41"/>
+    </row>
+    <row r="170" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A170" s="41"/>
+    </row>
+    <row r="171" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A171" s="41"/>
+    </row>
+    <row r="172" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A172" s="41"/>
+    </row>
+    <row r="173" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A173" s="41"/>
+    </row>
+    <row r="174" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A174" s="41"/>
+    </row>
+    <row r="175" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A175" s="41"/>
+    </row>
+    <row r="176" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A176" s="41"/>
+    </row>
+    <row r="177" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A177" s="41"/>
+    </row>
+    <row r="178" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A178" s="41"/>
+    </row>
+    <row r="179" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
+    </row>
+    <row r="180" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A180" s="41"/>
+    </row>
+    <row r="181" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A181" s="41"/>
+    </row>
+    <row r="182" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A182" s="41"/>
+    </row>
+    <row r="183" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A183" s="41"/>
+    </row>
+    <row r="184" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A184" s="41"/>
+    </row>
+    <row r="185" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A185" s="41"/>
+    </row>
+    <row r="186" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A186" s="41"/>
+    </row>
+    <row r="187" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A187" s="41"/>
+    </row>
+    <row r="188" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A188" s="41"/>
+    </row>
+    <row r="189" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A189" s="41"/>
+    </row>
+    <row r="190" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A190" s="41"/>
+    </row>
+    <row r="191" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A191" s="41"/>
+    </row>
+    <row r="192" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A192" s="41"/>
+    </row>
+    <row r="193" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A193" s="41"/>
+    </row>
+    <row r="194" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A194" s="41"/>
+    </row>
+    <row r="195" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A195" s="41"/>
+    </row>
+    <row r="196" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A196" s="41"/>
+    </row>
+    <row r="197" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A197" s="41"/>
+    </row>
+    <row r="198" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A198" s="41"/>
+    </row>
+    <row r="199" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A199" s="41"/>
+    </row>
+    <row r="200" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A200" s="41"/>
+    </row>
+    <row r="201" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A201" s="41"/>
+    </row>
+    <row r="202" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A202" s="41"/>
+    </row>
+    <row r="203" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A203" s="41"/>
+    </row>
+    <row r="204" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A204" s="41"/>
+    </row>
+    <row r="205" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A205" s="41"/>
+    </row>
+    <row r="206" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A206" s="41"/>
+    </row>
+    <row r="207" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A207" s="41"/>
+    </row>
+    <row r="208" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A208" s="41"/>
+    </row>
+    <row r="209" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A209" s="41"/>
+    </row>
+    <row r="210" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A210" s="41"/>
+    </row>
+    <row r="211" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A211" s="41"/>
+    </row>
+    <row r="212" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A212" s="41"/>
+    </row>
+    <row r="213" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A213" s="41"/>
+    </row>
+    <row r="214" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A214" s="41"/>
+    </row>
+    <row r="215" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A215" s="41"/>
+    </row>
+    <row r="216" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A216" s="41"/>
+    </row>
+    <row r="217" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A217" s="41"/>
+    </row>
+    <row r="218" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A218" s="41"/>
+    </row>
+    <row r="219" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A219" s="41"/>
+    </row>
+    <row r="220" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A220" s="41"/>
+    </row>
+    <row r="221" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A221" s="41"/>
+    </row>
+    <row r="222" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A222" s="41"/>
+    </row>
+    <row r="223" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A223" s="41"/>
+    </row>
+    <row r="224" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A224" s="41"/>
+    </row>
+    <row r="225" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A225" s="41"/>
+    </row>
+    <row r="226" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A226" s="41"/>
+    </row>
+    <row r="227" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A227" s="41"/>
+    </row>
+    <row r="228" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A228" s="41"/>
+    </row>
+    <row r="229" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A229" s="41"/>
+    </row>
+    <row r="230" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A230" s="41"/>
+    </row>
+    <row r="231" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A231" s="41"/>
+    </row>
+    <row r="232" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A232" s="41"/>
+    </row>
+    <row r="233" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A233" s="41"/>
+    </row>
+    <row r="234" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A234" s="41"/>
+    </row>
+    <row r="235" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A235" s="41"/>
+    </row>
+    <row r="236" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A236" s="41"/>
+    </row>
+    <row r="237" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A237" s="41"/>
+    </row>
+    <row r="238" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A238" s="41"/>
+    </row>
+    <row r="239" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A239" s="41"/>
+    </row>
+    <row r="240" spans="1:1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A240" s="41"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5990CEAB-CB1C-3949-BF0D-EA601849EE86}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,8 +2996,8 @@
       <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>108</v>
+      <c r="B3" s="29" t="s">
+        <v>107</v>
       </c>
       <c r="C3" s="7"/>
     </row>
@@ -1521,7 +3006,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="7"/>
     </row>
@@ -1530,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -1539,7 +3024,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C6" s="7"/>
     </row>
@@ -1548,431 +3033,431 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="30"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" s="30"/>
+      <c r="B9" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>7</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="30"/>
+      <c r="B10" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="30"/>
+      <c r="B13" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A15" s="7">
         <v>10</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="30"/>
+      <c r="C15" s="29"/>
     </row>
     <row r="16" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A16" s="7">
         <v>11</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C16" s="30"/>
+      <c r="B16" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A17" s="7">
         <v>12</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="30"/>
+      <c r="B17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A18" s="7">
         <v>13</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="30"/>
+      <c r="B18" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A19" s="7">
         <v>14</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A21" s="7">
         <v>15</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="30"/>
+      <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A22" s="7">
         <v>16</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="30"/>
+      <c r="B22" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="29"/>
     </row>
     <row r="23" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A23" s="7">
         <v>17</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="C23" s="30"/>
+      <c r="B23" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A25" s="7">
         <v>18</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="30"/>
+      <c r="B25" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
         <v>19</v>
       </c>
-      <c r="B26" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="30"/>
+      <c r="B26" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="29"/>
     </row>
     <row r="27" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A27" s="7">
         <v>20</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="30"/>
+      <c r="B27" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A29" s="7">
         <v>21</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C29" s="30"/>
+      <c r="B29" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A30" s="7">
         <v>22</v>
       </c>
-      <c r="B30" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="30"/>
+      <c r="B30" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A31" s="7">
         <v>23</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C31" s="30"/>
+      <c r="B31" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="29"/>
     </row>
     <row r="32" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
     </row>
     <row r="33" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A33" s="7">
         <v>24</v>
       </c>
-      <c r="B33" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="30"/>
+      <c r="B33" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="29"/>
     </row>
     <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
     </row>
     <row r="35" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A35" s="7">
         <v>25</v>
       </c>
-      <c r="B35" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="30"/>
+      <c r="B35" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="29"/>
     </row>
     <row r="36" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A36" s="7">
         <v>26</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>130</v>
-      </c>
-      <c r="C36" s="30"/>
+      <c r="B36" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="29"/>
     </row>
     <row r="37" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A37" s="7">
         <v>27</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="C37" s="30"/>
+      <c r="B37" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="29"/>
     </row>
     <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A38" s="7">
         <v>28</v>
       </c>
-      <c r="B38" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="30"/>
+      <c r="B38" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="29"/>
     </row>
     <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
     </row>
     <row r="40" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A40" s="7">
         <v>29</v>
       </c>
-      <c r="B40" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="30"/>
+      <c r="B40" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="29"/>
     </row>
     <row r="41" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A41" s="7">
         <v>30</v>
       </c>
-      <c r="B41" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="30"/>
+      <c r="B41" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="29"/>
     </row>
     <row r="42" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
     </row>
     <row r="43" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A43" s="7">
         <v>31</v>
       </c>
-      <c r="B43" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="30"/>
+      <c r="B43" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="29"/>
     </row>
     <row r="44" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A44" s="7">
         <v>32</v>
       </c>
-      <c r="B44" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="30"/>
+      <c r="B44" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C44" s="29"/>
     </row>
     <row r="45" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
     </row>
     <row r="46" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>33</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="30"/>
+      <c r="B46" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="29"/>
     </row>
     <row r="47" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A47" s="7">
         <v>34</v>
       </c>
-      <c r="B47" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="30"/>
+      <c r="B47" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="29"/>
     </row>
     <row r="48" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A48" s="7">
         <v>35</v>
       </c>
-      <c r="B48" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="30"/>
+      <c r="B48" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="29"/>
     </row>
     <row r="49" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A49" s="7">
         <v>36</v>
       </c>
-      <c r="B49" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="30"/>
+      <c r="B49" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A50" s="7">
         <v>37</v>
       </c>
-      <c r="B50" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="C50" s="30"/>
+      <c r="B50" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="29"/>
     </row>
     <row r="51" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A51" s="7">
         <v>38</v>
       </c>
-      <c r="B51" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="30"/>
+      <c r="B51" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" s="29"/>
     </row>
     <row r="52" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="30"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
     </row>
     <row r="53" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A53" s="7">
         <v>39</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>147</v>
+      <c r="B53" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A54" s="7">
         <v>40</v>
       </c>
-      <c r="B54" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>147</v>
+      <c r="B54" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A55" s="7">
         <v>41</v>
       </c>
-      <c r="B55" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>147</v>
+      <c r="B55" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>42</v>
       </c>
-      <c r="B56" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>147</v>
+      <c r="B56" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>43</v>
       </c>
-      <c r="B57" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>147</v>
+      <c r="B57" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="29" x14ac:dyDescent="0.2">
       <c r="A58" s="7">
         <v>44</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="29" t="s">
         <v>146</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="29" x14ac:dyDescent="0.2">
@@ -2219,22 +3704,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC75620-F0FE-484D-8D6F-D1248A3B8F04}">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
-    <sheetView topLeftCell="C29" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="37" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5"/>
-    <col min="2" max="2" width="68.6640625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="19"/>
+    <col min="2" max="2" width="68.6640625" style="22" customWidth="1"/>
     <col min="3" max="3" width="190" style="5" customWidth="1"/>
     <col min="4" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A1" s="19"/>
       <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
@@ -2242,9 +3726,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A2" s="19"/>
-      <c r="B2" s="22"/>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2258,42 +3740,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A4" s="19"/>
-      <c r="B4" s="22"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C4" s="19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A5" s="19"/>
-      <c r="B5" s="22"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A6" s="19"/>
-      <c r="B6" s="22"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="22"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="22"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A9" s="19"/>
-      <c r="B9" s="22"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.2">
@@ -2307,58 +3777,42 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A11" s="19"/>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C11" s="19" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C12" s="19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A13" s="19"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C13" s="19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A14" s="19"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C14" s="19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C15" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" s="19" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C17" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2372,9 +3826,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
-      <c r="B20" s="22"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2388,9 +3840,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" s="19"/>
     </row>
     <row r="23" spans="1:3" ht="76" x14ac:dyDescent="0.2">
@@ -2404,9 +3854,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A24" s="19"/>
-      <c r="B24" s="22"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" s="19"/>
     </row>
     <row r="25" spans="1:3" ht="76" x14ac:dyDescent="0.2">
@@ -2420,16 +3868,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A26" s="19"/>
-      <c r="B26" s="22"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" s="19" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A27" s="19"/>
-      <c r="B27" s="22"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C27" s="19"/>
     </row>
     <row r="28" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2443,23 +3887,19 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C29" s="19"/>
     </row>
     <row r="30" spans="1:3" ht="38" x14ac:dyDescent="0.2">
       <c r="A30" s="19">
         <v>8</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="19"/>
     </row>
-    <row r="31" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A31" s="19"/>
-      <c r="B31" s="22"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C31" s="19"/>
     </row>
     <row r="32" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2471,9 +3911,7 @@
       </c>
       <c r="C32" s="19"/>
     </row>
-    <row r="33" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A33" s="19"/>
-      <c r="B33" s="22"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C33" s="19"/>
     </row>
     <row r="34" spans="1:3" ht="76" x14ac:dyDescent="0.2">
@@ -2487,9 +3925,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A35" s="19"/>
-      <c r="B35" s="22"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C35" s="19"/>
     </row>
     <row r="36" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2503,15 +3939,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C37" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="B38" s="22"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C38" s="19"/>
     </row>
     <row r="39" spans="1:3" ht="38" x14ac:dyDescent="0.2">
@@ -2521,215 +3954,517 @@
       <c r="B39" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="19"/>
-    </row>
-    <row r="40" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A40" s="19"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="19"/>
-    </row>
-    <row r="41" spans="1:3" ht="38" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
+      <c r="C39" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="19"/>
+    </row>
+    <row r="42" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
         <v>13</v>
       </c>
-      <c r="B41" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A42" s="19"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A43" s="19"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="19"/>
-    </row>
-    <row r="44" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A44" s="19"/>
-      <c r="B44" s="22"/>
+      <c r="B42" s="22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>14</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>148</v>
+      </c>
       <c r="C44" s="19"/>
     </row>
-    <row r="45" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="22"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C45" s="19"/>
     </row>
-    <row r="46" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A46" s="19"/>
-      <c r="B46" s="22"/>
+    <row r="46" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>15</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>149</v>
+      </c>
       <c r="C46" s="19"/>
     </row>
-    <row r="47" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="22"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C47" s="19"/>
     </row>
-    <row r="48" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="22"/>
+    <row r="48" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
+        <v>16</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>150</v>
+      </c>
       <c r="C48" s="19"/>
     </row>
-    <row r="49" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="22"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C49" s="19"/>
     </row>
-    <row r="50" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="22"/>
+    <row r="50" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
+        <v>17</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>151</v>
+      </c>
       <c r="C50" s="19"/>
     </row>
-    <row r="51" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="22"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C51" s="19"/>
     </row>
-    <row r="52" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A52" s="19"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="19"/>
-    </row>
-    <row r="53" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A53" s="19"/>
-      <c r="B53" s="22"/>
+    <row r="52" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A52" s="19">
+        <v>18</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C53" s="19"/>
     </row>
-    <row r="54" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A54" s="19"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="19"/>
-    </row>
-    <row r="55" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A55" s="19"/>
-      <c r="B55" s="22"/>
+    <row r="54" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A54" s="19">
+        <v>19</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C55" s="19"/>
     </row>
-    <row r="56" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A56" s="19"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="19"/>
-    </row>
-    <row r="57" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A57" s="19"/>
-      <c r="B57" s="22"/>
+    <row r="56" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A56" s="19">
+        <v>20</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C57" s="19"/>
     </row>
-    <row r="58" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A58" s="19"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="19"/>
-    </row>
-    <row r="59" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A59" s="19"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="19"/>
-    </row>
-    <row r="60" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A60" s="19"/>
-      <c r="B60" s="22"/>
+    <row r="58" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A58" s="19">
+        <v>21</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C59" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C60" s="19"/>
     </row>
-    <row r="61" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A61" s="19"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="19"/>
-    </row>
-    <row r="62" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A62" s="19"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="19"/>
-    </row>
-    <row r="63" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A63" s="19"/>
-      <c r="B63" s="22"/>
+    <row r="61" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A61" s="19">
+        <v>22</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C62" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C63" s="19"/>
     </row>
-    <row r="64" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A64" s="19"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="19"/>
-    </row>
-    <row r="65" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A65" s="19"/>
-      <c r="B65" s="22"/>
+    <row r="64" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A64" s="19">
+        <v>23</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C65" s="19"/>
     </row>
-    <row r="66" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A66" s="19"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="19"/>
-    </row>
-    <row r="67" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A67" s="19"/>
-      <c r="B67" s="22"/>
+    <row r="66" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A66" s="19">
+        <v>24</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C67" s="19"/>
     </row>
-    <row r="68" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A68" s="19"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="19"/>
-    </row>
-    <row r="69" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A69" s="19"/>
-      <c r="B69" s="22"/>
+    <row r="68" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A68" s="19">
+        <v>25</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C69" s="19"/>
     </row>
-    <row r="70" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A70" s="19"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="19"/>
-    </row>
-    <row r="71" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A71" s="19"/>
-      <c r="B71" s="22"/>
+    <row r="70" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A70" s="19">
+        <v>26</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C71" s="19"/>
     </row>
-    <row r="72" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A72" s="19"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="19"/>
-    </row>
-    <row r="73" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A73" s="19"/>
-      <c r="B73" s="22"/>
+    <row r="72" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A72" s="19">
+        <v>27</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C73" s="19"/>
     </row>
-    <row r="74" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A74" s="19"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="19"/>
-    </row>
-    <row r="75" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A75" s="19"/>
-      <c r="B75" s="22"/>
+    <row r="74" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
+        <v>28</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" s="40"/>
       <c r="C75" s="19"/>
     </row>
-    <row r="76" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A76" s="19"/>
-      <c r="B76" s="22"/>
+    <row r="76" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A76" s="19">
+        <v>29</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>171</v>
+      </c>
       <c r="C76" s="19"/>
     </row>
-    <row r="77" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A77" s="19"/>
-      <c r="B77" s="22"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" s="40"/>
       <c r="C77" s="19"/>
     </row>
-    <row r="78" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A78" s="19"/>
-      <c r="B78" s="22"/>
+    <row r="78" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="A78" s="19">
+        <v>30</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>172</v>
+      </c>
       <c r="C78" s="19"/>
     </row>
-    <row r="79" spans="1:3" ht="37" x14ac:dyDescent="0.2">
-      <c r="A79" s="19"/>
-      <c r="B79" s="22"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B79" s="40"/>
       <c r="C79" s="19"/>
+    </row>
+    <row r="80" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A80" s="19">
+        <v>31</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="19"/>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B81" s="40"/>
+      <c r="C81" s="19"/>
+    </row>
+    <row r="82" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A82" s="19">
+        <v>32</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A83" s="19">
+        <v>33</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A84" s="19">
+        <v>34</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A85" s="19">
+        <v>35</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A86" s="19">
+        <v>35</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A87" s="19">
+        <v>36</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B88" s="40"/>
+    </row>
+    <row r="89" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A89" s="19">
+        <v>37</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B90" s="40"/>
+    </row>
+    <row r="91" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A91" s="19">
+        <v>38</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B92" s="40"/>
+    </row>
+    <row r="93" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A93" s="19">
+        <v>39</v>
+      </c>
+      <c r="B93" s="40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B94" s="40"/>
+    </row>
+    <row r="95" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A95" s="19">
+        <v>40</v>
+      </c>
+      <c r="B95" s="40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B96" s="40"/>
+    </row>
+    <row r="97" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A97" s="19">
+        <v>41</v>
+      </c>
+      <c r="B97" s="40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="40"/>
+    </row>
+    <row r="99" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A99" s="19">
+        <v>42</v>
+      </c>
+      <c r="B99" s="40" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B100" s="40"/>
+    </row>
+    <row r="101" spans="1:2" ht="76" x14ac:dyDescent="0.2">
+      <c r="A101" s="19">
+        <v>43</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="40"/>
+    </row>
+    <row r="103" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A103" s="19">
+        <v>44</v>
+      </c>
+      <c r="B103" s="40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B104" s="40"/>
+    </row>
+    <row r="105" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A105" s="19">
+        <v>45</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="40"/>
+    </row>
+    <row r="107" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A107" s="19">
+        <v>46</v>
+      </c>
+      <c r="B107" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A108" s="19">
+        <v>47</v>
+      </c>
+      <c r="B108" s="40" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="40"/>
+    </row>
+    <row r="110" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A110" s="19">
+        <v>48</v>
+      </c>
+      <c r="B110" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A111" s="19">
+        <v>49</v>
+      </c>
+      <c r="B111" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B112" s="40"/>
+    </row>
+    <row r="113" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A113" s="19">
+        <v>50</v>
+      </c>
+      <c r="B113" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A114" s="19">
+        <v>51</v>
+      </c>
+      <c r="B114" s="40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A115" s="19">
+        <v>52</v>
+      </c>
+      <c r="B115" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A116" s="19">
+        <v>53</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="40"/>
+    </row>
+    <row r="118" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A118" s="22">
+        <v>54</v>
+      </c>
+      <c r="B118" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B119" s="40"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="19">
+        <v>55</v>
+      </c>
+      <c r="B120" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2746,261 +4481,1262 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="25"/>
-    <col min="2" max="2" width="75.5" style="25" customWidth="1"/>
-    <col min="3" max="3" width="175.33203125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="43.33203125" style="25" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="26"/>
+    <col min="1" max="1" width="10.83203125" style="24"/>
+    <col min="2" max="2" width="75.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="175.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="43.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="25">
+      <c r="A1" s="24">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="24">
+        <v>2</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="C3" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>3</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
+        <v>4</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="24">
+        <v>5</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E12" s="24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25">
-        <v>2</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="25" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="24">
+        <v>6</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
+        <v>7</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25">
-        <v>3</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25">
-        <v>4</v>
-      </c>
-      <c r="B10" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>5</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="25" t="s">
+      <c r="E16" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24">
+        <v>8</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>6</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="25">
-        <v>7</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="25">
-        <v>8</v>
-      </c>
-      <c r="B18" s="25" t="s">
+      <c r="D18" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="E18" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="24">
+        <v>9</v>
+      </c>
+      <c r="B20" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="25">
-        <v>9</v>
-      </c>
-      <c r="B20" s="25" t="s">
+      <c r="D20" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>10</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D22" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="25">
-        <v>10</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="25">
-        <v>11</v>
-      </c>
-      <c r="B24" s="29" t="s">
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="24">
+        <v>12</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="25">
-        <v>12</v>
-      </c>
-      <c r="B26" s="29" t="s">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="24">
+        <v>13</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="25">
-        <v>13</v>
-      </c>
-      <c r="B28" s="29" t="s">
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="24">
+        <v>14</v>
+      </c>
+      <c r="B30" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="25">
-        <v>14</v>
-      </c>
-      <c r="B30" s="29" t="s">
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="24">
+        <v>15</v>
+      </c>
+      <c r="B32" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25">
-        <v>15</v>
-      </c>
-      <c r="B32" s="29" t="s">
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="24">
+        <v>16</v>
+      </c>
+      <c r="B34" s="24" t="s">
         <v>106</v>
-      </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="25">
-        <v>16</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A549A63-33DE-4746-9681-15F2E7482A12}">
+  <dimension ref="A1:C59"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="37" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.33203125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="82.33203125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="43" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="152" x14ac:dyDescent="0.2">
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A5" s="44" t="s">
+        <v>343</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="114" x14ac:dyDescent="0.2">
+      <c r="A6" s="44"/>
+      <c r="B6" s="43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="190" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A10" s="43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A11" s="43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="76" x14ac:dyDescent="0.2">
+      <c r="A13" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="38" x14ac:dyDescent="0.2">
+      <c r="A15" s="43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A17" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="152" x14ac:dyDescent="0.2">
+      <c r="B18" s="43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A20" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="76" x14ac:dyDescent="0.2">
+      <c r="A22" s="43" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="190" x14ac:dyDescent="0.2">
+      <c r="A24" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="B25" s="43" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="76" x14ac:dyDescent="0.2">
+      <c r="A27" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="76" x14ac:dyDescent="0.2">
+      <c r="A28" s="43" t="s">
+        <v>361</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="152" x14ac:dyDescent="0.2">
+      <c r="B29" s="43" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A31" s="43" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A32" s="43" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="190" x14ac:dyDescent="0.2">
+      <c r="A34" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A36" s="43" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A37" s="43" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="76" x14ac:dyDescent="0.2">
+      <c r="A39" s="43" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A41" s="43" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A43" s="43" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="38" x14ac:dyDescent="0.2">
+      <c r="A45" s="43" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+      <c r="A47" s="43" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="76" x14ac:dyDescent="0.2">
+      <c r="A49" s="43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A51" s="43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A53" s="43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="76" x14ac:dyDescent="0.2">
+      <c r="A55" s="43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A57" s="43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="38" x14ac:dyDescent="0.2">
+      <c r="A59" s="43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A5:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6D25A0F-FA23-A340-AC47-A415384B1C4E}">
+  <dimension ref="A1:B180"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="126.83203125" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A251">
+    <sortCondition ref="A1:A251"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>